--- a/data/financial_statements/socf/VMC.xlsx
+++ b/data/financial_statements/socf/VMC.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -107,9 +224,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -162,12 +276,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -472,129 +583,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>177200000</v>
@@ -715,23 +826,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>218800000</v>
+        <v>166300000</v>
       </c>
       <c r="C3">
-        <v>143000000</v>
+        <v>157900000</v>
       </c>
       <c r="D3">
-        <v>141000000</v>
+        <v>157400000</v>
       </c>
       <c r="E3">
-        <v>137400000</v>
+        <v>158311000</v>
       </c>
       <c r="F3">
-        <v>122100000</v>
+        <v>129347000</v>
       </c>
       <c r="G3">
         <v>103100000</v>
@@ -837,8 +948,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>28100000</v>
@@ -959,8 +1070,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E5">
         <v>-42000000</v>
@@ -991,8 +1102,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E6">
         <v>8300000</v>
@@ -1035,8 +1146,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E7">
         <v>-23700000</v>
@@ -1079,23 +1190,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>-1300000</v>
+        <v>27500000</v>
       </c>
       <c r="C8">
-        <v>-207800000</v>
+        <v>-202200000</v>
       </c>
       <c r="D8">
-        <v>-77800000</v>
+        <v>-76800000</v>
       </c>
       <c r="E8">
-        <v>50000000</v>
+        <v>40744000</v>
       </c>
       <c r="F8">
-        <v>-16700000</v>
+        <v>18198000</v>
       </c>
       <c r="G8">
         <v>-102800000</v>
@@ -1201,8 +1312,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>8600000</v>
@@ -1266,23 +1377,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>422800000</v>
+        <v>420600000</v>
       </c>
       <c r="C10">
         <v>149900000</v>
       </c>
       <c r="D10">
-        <v>175600000</v>
+        <v>174900000</v>
       </c>
       <c r="E10">
-        <v>287100000</v>
+        <v>287084000</v>
       </c>
       <c r="F10">
-        <v>326900000</v>
+        <v>340229000</v>
       </c>
       <c r="G10">
         <v>228600000</v>
@@ -1388,8 +1499,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>-132200000</v>
@@ -1510,8 +1621,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="AG12">
         <v>721359000</v>
@@ -1521,8 +1632,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>-339900000</v>
@@ -1534,10 +1645,10 @@
         <v>-148200000</v>
       </c>
       <c r="E13">
-        <v>-4900000</v>
+        <v>-4908000</v>
       </c>
       <c r="F13">
-        <v>-1634500000</v>
+        <v>-1634492000</v>
       </c>
       <c r="I13">
         <v>-37183000</v>
@@ -1631,23 +1742,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>100000</v>
       </c>
       <c r="C14">
-        <v>-100000</v>
+        <v>-400000</v>
       </c>
       <c r="D14">
-        <v>-100000</v>
+        <v>-17000000</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1777000</v>
       </c>
       <c r="F14">
-        <v>100000</v>
+        <v>-6556000</v>
       </c>
       <c r="G14">
         <v>-1429000</v>
@@ -1747,8 +1858,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>-472000000</v>
@@ -1760,10 +1871,10 @@
         <v>-302500000</v>
       </c>
       <c r="E15">
-        <v>-113500000</v>
+        <v>-113516000</v>
       </c>
       <c r="F15">
-        <v>-1759100000</v>
+        <v>-1759112000</v>
       </c>
       <c r="G15">
         <v>-87300000</v>
@@ -1869,23 +1980,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>127800000</v>
+        <v>136000000</v>
       </c>
       <c r="C16">
-        <v>60400000</v>
+        <v>70700000</v>
       </c>
       <c r="D16">
-        <v>89200000</v>
+        <v>97700000</v>
       </c>
       <c r="E16">
-        <v>-16400000</v>
+        <v>-21190000</v>
       </c>
       <c r="F16">
-        <v>652500000</v>
+        <v>642703000</v>
       </c>
       <c r="G16">
         <v>-700000</v>
@@ -1991,8 +2102,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="I17">
         <v>32000</v>
@@ -2086,8 +2197,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>-53200000</v>
@@ -2099,10 +2210,10 @@
         <v>-53200000</v>
       </c>
       <c r="E18">
-        <v>-49100000</v>
+        <v>-49133000</v>
       </c>
       <c r="F18">
-        <v>-49100000</v>
+        <v>-49094000</v>
       </c>
       <c r="G18">
         <v>-49100000</v>
@@ -2208,23 +2319,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>-2200000</v>
+        <v>49600000</v>
       </c>
       <c r="C19">
-        <v>-300000</v>
+        <v>6500000</v>
       </c>
       <c r="D19">
-        <v>-17600000</v>
+        <v>-14700000</v>
       </c>
       <c r="E19">
-        <v>-3000000</v>
+        <v>9586000</v>
       </c>
       <c r="F19">
-        <v>-3200000</v>
+        <v>9221000</v>
       </c>
       <c r="G19">
         <v>-14000000</v>
@@ -2330,23 +2441,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>72400000</v>
+        <v>74600000</v>
       </c>
       <c r="C20">
         <v>7000000</v>
       </c>
       <c r="D20">
-        <v>18400000</v>
+        <v>19100000</v>
       </c>
       <c r="E20">
-        <v>-68500000</v>
+        <v>-68485000</v>
       </c>
       <c r="F20">
-        <v>600200000</v>
+        <v>586907000</v>
       </c>
       <c r="G20">
         <v>-63800000</v>
@@ -2452,8 +2563,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>23200000</v>
@@ -2465,10 +2576,10 @@
         <v>-108500000</v>
       </c>
       <c r="E21">
-        <v>105100000</v>
+        <v>105083000</v>
       </c>
       <c r="F21">
-        <v>-832000000</v>
+        <v>-831976000</v>
       </c>
       <c r="G21">
         <v>77500000</v>
@@ -2574,8 +2685,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2696,8 +2807,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>23200000</v>
@@ -2818,8 +2929,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>9700000</v>
@@ -2940,8 +3051,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>-53200000</v>
@@ -3062,8 +3173,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>0.1777</v>
@@ -3184,8 +3295,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>-1300000</v>
@@ -3306,8 +3417,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="I28">
         <v>32000</v>
@@ -3401,8 +3512,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="I29">
         <v>32000</v>
